--- a/复合表demo.xlsx
+++ b/复合表demo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20351"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ExcelExport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A549080C-AFAD-46B6-9060-B110E14752E2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF7E732C-BAF5-4E7E-AB61-CAEE9D51E619}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="def" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="upgrade" sheetId="3" r:id="rId3"/>
     <sheet name="color" sheetId="5" r:id="rId4"/>
     <sheet name="upgrade3" sheetId="7" r:id="rId5"/>
+    <sheet name="说明" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -379,50 +380,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -707,608 +708,505 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20:Q29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="2" width="12" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="15" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="13.42578125" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" customWidth="1"/>
-    <col min="17" max="17" width="10.140625" customWidth="1"/>
-    <col min="18" max="18" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.1328125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.3984375" customWidth="1"/>
+    <col min="9" max="9" width="12.73046875" customWidth="1"/>
+    <col min="13" max="13" width="13.1328125" customWidth="1"/>
+    <col min="17" max="17" width="10.1328125" customWidth="1"/>
+    <col min="18" max="18" width="13.86328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="18" customHeight="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="7"/>
-      <c r="K1" s="15" t="s">
+      <c r="I1" s="6"/>
+      <c r="K1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="7"/>
-      <c r="P1" s="15" t="s">
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="6"/>
+      <c r="P1" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="7"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="6"/>
     </row>
     <row r="2" spans="1:19" ht="18" customHeight="1">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="F2" s="8" t="s">
+      <c r="D2" s="9"/>
+      <c r="F2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="10"/>
-      <c r="K2" s="8" t="s">
+      <c r="I2" s="9"/>
+      <c r="K2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="10"/>
-      <c r="P2" s="8" t="s">
+      <c r="N2" s="9"/>
+      <c r="P2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="Q2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="R2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="S2" s="10"/>
+      <c r="S2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="18" customHeight="1">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="F3" s="8" t="s">
+      <c r="D3" s="9"/>
+      <c r="F3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="10"/>
-      <c r="K3" s="8" t="s">
+      <c r="I3" s="9"/>
+      <c r="K3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="10"/>
-      <c r="P3" s="8" t="s">
+      <c r="N3" s="9"/>
+      <c r="P3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="Q3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="R3" s="9" t="s">
+      <c r="R3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="S3" s="10"/>
+      <c r="S3" s="9"/>
     </row>
     <row r="4" spans="1:19" ht="18" customHeight="1">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="F4" s="8" t="s">
+      <c r="D4" s="9"/>
+      <c r="F4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="10"/>
-      <c r="K4" s="8" t="s">
+      <c r="I4" s="9"/>
+      <c r="K4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="L4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="M4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="10"/>
-      <c r="P4" s="8" t="s">
+      <c r="N4" s="9"/>
+      <c r="P4" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="Q4" s="9" t="s">
+      <c r="Q4" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="9" t="s">
+      <c r="R4" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="S4" s="10"/>
+      <c r="S4" s="9"/>
     </row>
     <row r="5" spans="1:19" ht="60" customHeight="1">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="10"/>
-      <c r="K5" s="8" t="s">
+      <c r="I5" s="9"/>
+      <c r="K5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="L5" s="9" t="s">
+      <c r="L5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="M5" s="9" t="s">
+      <c r="M5" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="N5" s="10"/>
-      <c r="P5" s="8" t="s">
+      <c r="N5" s="9"/>
+      <c r="P5" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="Q5" s="9" t="s">
+      <c r="Q5" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="R5" s="9" t="s">
+      <c r="R5" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="S5" s="10"/>
+      <c r="S5" s="9"/>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="F6" s="8" t="s">
+      <c r="D6" s="16"/>
+      <c r="F6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="10"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="10"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="10"/>
+      <c r="I6" s="9"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="9"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="9"/>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="10"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="10"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="10"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="10"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="9"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="9"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="9"/>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="10"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="10"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="10"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="9"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="9"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="9"/>
     </row>
     <row r="9" spans="1:19">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="10"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="10"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="10"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="9"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="9"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="9"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="9"/>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="10"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="10"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="10"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="9"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="9"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="9"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="9"/>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="10"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="10"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="10"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="9"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="9"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="9"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="9"/>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="8"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="10"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="10"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="10"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="9"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="9"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="9"/>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="10"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="10"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="10"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="10"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="9"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="9"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="9"/>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="10"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="14"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="14"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="14"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="13"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="13"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="13"/>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="10"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16" s="8"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="10"/>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="8"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="10"/>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="8"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="10"/>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="8"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="10"/>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="8"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="10"/>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="8"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="10"/>
-      <c r="H21" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="A22" s="8"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="10"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="A23" s="8"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="10"/>
-      <c r="H23" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="A24" s="8"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="10"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="A25" s="8"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="10"/>
-      <c r="H25" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="A26" s="8"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="10"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="A27" s="8"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="10"/>
-      <c r="H27" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="A28" s="8"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="10"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="A29" s="8"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="10"/>
-      <c r="H29" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="A30" s="8"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="10"/>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="A31" s="12"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="14"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="7"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="7"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="9"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="9"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="7"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="9"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="9"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="9"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="9"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="9"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="7"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="9"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="7"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="9"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="7"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="9"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="7"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="9"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="7"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="9"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="7"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="9"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="11"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="H27:Q27"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B5" location="def!F1" display="table" xr:uid="{2376D716-2600-46C2-B785-895937631A83}"/>
@@ -1328,7 +1226,7 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="3" width="8" customWidth="1" collapsed="1"/>
   </cols>
@@ -1420,7 +1318,7 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
@@ -1522,7 +1420,7 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
@@ -1622,7 +1520,7 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
@@ -1711,4 +1609,140 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6192F54C-384C-4623-B695-8F3865F1E28A}">
+  <dimension ref="I20:R28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19:R28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="20" spans="9:18">
+      <c r="I20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+    </row>
+    <row r="21" spans="9:18">
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+    </row>
+    <row r="22" spans="9:18">
+      <c r="I22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+    </row>
+    <row r="23" spans="9:18">
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+    </row>
+    <row r="24" spans="9:18">
+      <c r="I24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+    </row>
+    <row r="25" spans="9:18">
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+    </row>
+    <row r="26" spans="9:18">
+      <c r="I26" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
+      <c r="R26" s="17"/>
+    </row>
+    <row r="27" spans="9:18">
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+    </row>
+    <row r="28" spans="9:18">
+      <c r="I28" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I26:R26"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>